--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\Dispatcher\Template_REF_DataTable\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BB40A-5E1D-46D8-BC82-6119CC797EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE50FE-A18E-450B-BC25-AD9FBD038FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>Error | Found some Error while reading/adding EmpDetails into Queue.</t>
   </si>
   <si>
-    <t>HR-GreetingsCardsData\EmpDetails\</t>
-  </si>
-  <si>
     <t>EmpDetailsFileName</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData/EmpDetails</t>
   </si>
 </sst>
 </file>
@@ -592,12 +592,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -655,7 +655,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1671,15 +1671,15 @@
   <dimension ref="A1:Z977"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="126.21875" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="126.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1716,7 +1716,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1855,63 +1855,63 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2888,12 +2888,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE50FE-A18E-450B-BC25-AD9FBD038FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635A87F-9AB3-4478-BB88-B3B285E04974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635A87F-9AB3-4478-BB88-B3B285E04974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01B38E-B72C-4340-8175-4F1212103C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1721,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1732,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01B38E-B72C-4340-8175-4F1212103C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB6947-129D-4D50-86BA-8E47222D3A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -201,16 +201,16 @@
     <t>sheetNameOfDOW_WishesName</t>
   </si>
   <si>
-    <t>columnNameOfName</t>
-  </si>
-  <si>
-    <t>columnNameOfDetails</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
     <t>HR-GreetingsCardsData/EmpDetails</t>
+  </si>
+  <si>
+    <t>columnNameOfDOW_WishesName</t>
+  </si>
+  <si>
+    <t>columnNameOfDOB_WishesName</t>
+  </si>
+  <si>
+    <t>columnNameOfDOJ_WishesName</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1754,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1911,21 +1911,28 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB6947-129D-4D50-86BA-8E47222D3A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0F2DB-252F-4EC8-B10E-12AB3AAF49AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0F2DB-252F-4EC8-B10E-12AB3AAF49AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB000A5-2EF3-46B5-A278-6D3FE204B6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>sheetNameOfDOW_WishesName</t>
   </si>
   <si>
-    <t>HR-GreetingsCardsData/EmpDetails</t>
-  </si>
-  <si>
     <t>columnNameOfDOW_WishesName</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>columnNameOfDOJ_WishesName</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\EmpDetails</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1754,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1911,7 +1911,7 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB000A5-2EF3-46B5-A278-6D3FE204B6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC71FE1-9E80-4C2F-AA91-1F94DD4983CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -93,33 +93,6 @@
     <t>excelFilePath</t>
   </si>
   <si>
-    <t>EmpName</t>
-  </si>
-  <si>
-    <t>columnNameOfEmpName</t>
-  </si>
-  <si>
-    <t>columnNameOfEmpDepartment</t>
-  </si>
-  <si>
-    <t>columnNameOfEmpTemplate</t>
-  </si>
-  <si>
-    <t>columnNameOfEmpYears</t>
-  </si>
-  <si>
-    <t>EmpDepartment</t>
-  </si>
-  <si>
-    <t>EmpTemplate</t>
-  </si>
-  <si>
-    <t>EmpYears</t>
-  </si>
-  <si>
-    <t>sheetNameOfEmpData</t>
-  </si>
-  <si>
     <t>sheetNameOfEmpFilterData</t>
   </si>
   <si>
@@ -150,15 +123,9 @@
     <t>SupportEmailID</t>
   </si>
   <si>
-    <t>SupportEmailSubject</t>
-  </si>
-  <si>
     <t>testsk212@outlook.com</t>
   </si>
   <si>
-    <t>Error | Found some Error while reading/adding EmpDetails into Queue.</t>
-  </si>
-  <si>
     <t>EmpDetailsFileName</t>
   </si>
   <si>
@@ -211,6 +178,18 @@
   </si>
   <si>
     <t>HR-GreetingsCardsData\EmpDetails</t>
+  </si>
+  <si>
+    <t>SupportEmailSubjectOnError</t>
+  </si>
+  <si>
+    <t>SupportEmailSubjectOnSuccess</t>
+  </si>
+  <si>
+    <t>SUCCESS | HR - GreetingCards : Dispatcher Process | EmpDetails has been Process Successfully.</t>
+  </si>
+  <si>
+    <t>Failed | HR - GreetingCards : Dispatcher Process | Found Some Error while Process EmpDetails, Please check.</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z977"/>
+  <dimension ref="A1:Z973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1754,15 +1733,15 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1794,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1807,74 +1786,74 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
@@ -1882,57 +1861,29 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2879,10 +2830,6 @@
     <row r="971" ht="14.25" customHeight="1"/>
     <row r="972" ht="14.25" customHeight="1"/>
     <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC71FE1-9E80-4C2F-AA91-1F94DD4983CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C20CD1-2E3B-4912-8DCE-9F05DE112E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>SupportEmailID</t>
   </si>
   <si>
-    <t>testsk212@outlook.com</t>
-  </si>
-  <si>
     <t>EmpDetailsFileName</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Failed | HR - GreetingCards : Dispatcher Process | Found Some Error while Process EmpDetails, Please check.</t>
+  </si>
+  <si>
+    <t>sakadav@bugraptors.com</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z973"/>
+  <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1733,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1778,10 +1779,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1789,36 +1790,36 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -1826,7 +1827,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1834,10 +1835,10 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
@@ -1850,10 +1851,10 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
@@ -1861,12 +1862,12 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -1874,10 +1875,10 @@
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2829,7 +2830,6 @@
     <row r="970" ht="14.25" customHeight="1"/>
     <row r="971" ht="14.25" customHeight="1"/>
     <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C20CD1-2E3B-4912-8DCE-9F05DE112E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F766B82-221B-4341-AE08-66D30C458D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>sakadav@bugraptors.com</t>
+  </si>
+  <si>
+    <t>DOB__Greetings</t>
+  </si>
+  <si>
+    <t>DOJ__Greetings</t>
+  </si>
+  <si>
+    <t>DOW__Greetings</t>
   </si>
 </sst>
 </file>
@@ -241,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,7 +260,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,7 +1659,7 @@
   <dimension ref="A1:Z972"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1830,7 +1838,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
@@ -1838,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
@@ -1846,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
@@ -1877,7 +1885,7 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F766B82-221B-4341-AE08-66D30C458D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4097BC-7BDF-45F1-BE4C-023B464013D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>Failed | HR - GreetingCards : Dispatcher Process | Found Some Error while Process EmpDetails, Please check.</t>
   </si>
   <si>
-    <t>sakadav@bugraptors.com</t>
-  </si>
-  <si>
     <t>DOB__Greetings</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>DOW__Greetings</t>
+  </si>
+  <si>
+    <t>HR@bugraptors.com</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,6 +260,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1838,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
@@ -1846,7 +1847,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
@@ -1854,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
@@ -1885,8 +1886,8 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4097BC-7BDF-45F1-BE4C-023B464013D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED98F90B-5CF6-4C59-BE52-8248424FC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
   </si>
   <si>
     <t>excelFilePath</t>
@@ -250,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,7 +257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +574,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -628,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1659,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1740,154 +1736,154 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
